--- a/data/trans_orig/P2C_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD77F9B6-F4F7-4906-A687-F1873875BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{750C8CB9-E4FA-47DF-8EA1-449ABB5C7C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2CB071CD-D149-41DA-89EC-8549ED895753}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7288FDC6-4935-4031-AFC3-CE9D3A4F1454}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
   <si>
     <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>6,47%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
   </si>
   <si>
     <t>12,25%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>93,53%</t>
   </si>
   <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>87,75%</t>
   </si>
   <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>90,72%</t>
   </si>
   <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>24,12%</t>
   </si>
   <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
   </si>
   <si>
     <t>49,06%</t>
   </si>
   <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
   </si>
   <si>
     <t>35,58%</t>
   </si>
   <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
   </si>
   <si>
     <t>50,94%</t>
   </si>
   <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
   </si>
   <si>
     <t>64,42%</t>
   </si>
   <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,1045 +197,1027 @@
     <t>44,44%</t>
   </si>
   <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
     <t>40,72%</t>
   </si>
   <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
     <t>89,48%</t>
   </si>
   <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>87,26%</t>
   </si>
   <si>
     <t>6,45%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
   </si>
   <si>
     <t>11,6%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
   </si>
   <si>
     <t>9,37%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
   </si>
   <si>
     <t>93,55%</t>
   </si>
   <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
   </si>
   <si>
     <t>88,4%</t>
   </si>
   <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
   </si>
   <si>
     <t>90,63%</t>
   </si>
   <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
   </si>
   <si>
     <t>23,82%</t>
   </si>
   <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
   </si>
   <si>
     <t>33,25%</t>
   </si>
   <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
   </si>
   <si>
     <t>28,64%</t>
   </si>
   <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
   </si>
   <si>
     <t>76,18%</t>
   </si>
   <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
   </si>
   <si>
     <t>66,75%</t>
   </si>
   <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
   </si>
   <si>
     <t>71,36%</t>
   </si>
   <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
   </si>
   <si>
     <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1244,268 +1226,262 @@
     <t>7,35%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>6,14%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
   </si>
   <si>
     <t>12,41%</t>
   </si>
   <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
   </si>
   <si>
     <t>87,59%</t>
   </si>
   <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
   </si>
   <si>
     <t>10,48%</t>
   </si>
   <si>
-    <t>12,63%</t>
+    <t>12,66%</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>89,52%</t>
   </si>
   <si>
-    <t>87,37%</t>
+    <t>87,34%</t>
   </si>
   <si>
     <t>90,39%</t>
   </si>
   <si>
-    <t>88,85%</t>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>16,63%</t>
+    <t>16,5%</t>
   </si>
   <si>
     <t>30,69%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
   </si>
   <si>
     <t>24,02%</t>
@@ -1514,28 +1490,28 @@
     <t>18,31%</t>
   </si>
   <si>
-    <t>39,48%</t>
+    <t>40,86%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>83,37%</t>
+    <t>83,5%</t>
   </si>
   <si>
     <t>69,31%</t>
   </si>
   <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
   </si>
   <si>
     <t>75,98%</t>
   </si>
   <si>
-    <t>60,52%</t>
+    <t>59,14%</t>
   </si>
   <si>
     <t>81,69%</t>
@@ -1544,49 +1520,49 @@
     <t>13,45%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
+    <t>14,73%</t>
   </si>
   <si>
     <t>20,4%</t>
   </si>
   <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
   </si>
   <si>
     <t>17,14%</t>
   </si>
   <si>
-    <t>15,54%</t>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
   </si>
   <si>
     <t>86,55%</t>
   </si>
   <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>85,27%</t>
   </si>
   <si>
     <t>79,6%</t>
   </si>
   <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
   </si>
   <si>
     <t>82,86%</t>
   </si>
   <si>
-    <t>84,46%</t>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +1974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD16B0DB-5DEA-48B8-BEE5-8D10AACD33CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA53EAAC-54DF-4D5E-A8C3-E8C4C9CC6522}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3130,7 +3106,7 @@
         <v>4889</v>
       </c>
       <c r="N23" s="7">
-        <v>4968863</v>
+        <v>4968864</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>141</v>
@@ -3181,7 +3157,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3217,7 +3193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FBBFB8-9E9B-4E56-99F5-E7646FA6267C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFDB0BD-DD14-4393-B2B3-0852B1A3A013}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4436,7 +4412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61957805-937A-4056-BF5B-7E87B5A7E4C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17CD373-369F-4BC1-803E-AD4140372C01}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5043,25 +5019,25 @@
         <v>330</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M13" s="7">
         <v>331</v>
       </c>
       <c r="N13" s="7">
-        <v>361164</v>
+        <v>361165</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5052,13 @@
         <v>477505</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H14" s="7">
         <v>423</v>
@@ -5091,13 +5067,13 @@
         <v>456456</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>340</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>341</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7">
         <v>853</v>
@@ -5106,13 +5082,13 @@
         <v>933961</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,7 +5130,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5180,13 +5156,13 @@
         <v>41405</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>347</v>
+        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -5195,13 +5171,13 @@
         <v>61113</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -5210,13 +5186,13 @@
         <v>102518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5207,13 @@
         <v>436513</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>355</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H17" s="7">
         <v>380</v>
@@ -5246,13 +5222,13 @@
         <v>435736</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="M17" s="7">
         <v>767</v>
@@ -5261,13 +5237,13 @@
         <v>872249</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,13 +5311,13 @@
         <v>38122</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -5350,13 +5326,13 @@
         <v>90236</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>113</v>
@@ -5365,13 +5341,13 @@
         <v>128358</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5362,13 @@
         <v>553206</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>582</v>
@@ -5401,13 +5377,13 @@
         <v>687695</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>1169</v>
@@ -5416,13 +5392,13 @@
         <v>1240901</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5466,13 @@
         <v>808668</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>1149</v>
@@ -5505,13 +5481,13 @@
         <v>1178484</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>1913</v>
@@ -5520,13 +5496,13 @@
         <v>1987152</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5517,13 @@
         <v>2585682</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H23" s="7">
         <v>2189</v>
@@ -5556,13 +5532,13 @@
         <v>2366058</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>4656</v>
@@ -5571,13 +5547,13 @@
         <v>4951740</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,7 +5631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FB6940-5986-45F3-A4C5-72C591DDEDB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECB3D03-E265-4752-8C51-AF17BDE34D1E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5672,7 +5648,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5779,13 +5755,13 @@
         <v>27759</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -5794,13 +5770,13 @@
         <v>36255</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -5809,13 +5785,13 @@
         <v>64014</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5806,13 @@
         <v>349920</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -5845,13 +5821,13 @@
         <v>318702</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M5" s="7">
         <v>340</v>
@@ -5860,13 +5836,13 @@
         <v>668622</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5910,13 @@
         <v>53810</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>419</v>
+        <v>359</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="H7" s="7">
         <v>102</v>
@@ -5949,13 +5925,13 @@
         <v>108270</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="M7" s="7">
         <v>145</v>
@@ -5964,13 +5940,13 @@
         <v>162080</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +5961,13 @@
         <v>374586</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>429</v>
+        <v>367</v>
       </c>
       <c r="H8" s="7">
         <v>359</v>
@@ -6000,13 +5976,13 @@
         <v>390945</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="M8" s="7">
         <v>618</v>
@@ -6015,13 +5991,13 @@
         <v>765531</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6065,13 @@
         <v>121388</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="H10" s="7">
         <v>200</v>
@@ -6104,13 +6080,13 @@
         <v>149706</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="M10" s="7">
         <v>315</v>
@@ -6119,13 +6095,13 @@
         <v>271095</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6116,13 @@
         <v>435864</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="H11" s="7">
         <v>648</v>
@@ -6155,13 +6131,13 @@
         <v>460741</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="M11" s="7">
         <v>1079</v>
@@ -6170,13 +6146,13 @@
         <v>896604</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6220,13 @@
         <v>100903</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H13" s="7">
         <v>163</v>
@@ -6259,13 +6235,13 @@
         <v>110668</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="M13" s="7">
         <v>258</v>
@@ -6274,13 +6250,13 @@
         <v>211571</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6271,13 @@
         <v>623087</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="H14" s="7">
         <v>978</v>
@@ -6310,28 +6286,28 @@
         <v>636593</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>468</v>
+        <v>420</v>
       </c>
       <c r="M14" s="7">
         <v>1548</v>
       </c>
       <c r="N14" s="7">
-        <v>1259681</v>
+        <v>1259680</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,7 +6349,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6399,13 +6375,13 @@
         <v>52427</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -6414,13 +6390,13 @@
         <v>62590</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>352</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="M16" s="7">
         <v>158</v>
@@ -6429,13 +6405,13 @@
         <v>115017</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>467</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6426,13 @@
         <v>547730</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="H17" s="7">
         <v>901</v>
@@ -6465,13 +6441,13 @@
         <v>534473</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>362</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>1507</v>
@@ -6480,13 +6456,13 @@
         <v>1082203</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,13 +6530,13 @@
         <v>99125</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="H19" s="7">
         <v>378</v>
@@ -6569,13 +6545,13 @@
         <v>315060</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="M19" s="7">
         <v>529</v>
@@ -6584,13 +6560,13 @@
         <v>414185</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,16 +6578,16 @@
         <v>877</v>
       </c>
       <c r="D20" s="7">
-        <v>598629</v>
+        <v>598630</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="H20" s="7">
         <v>1330</v>
@@ -6620,13 +6596,13 @@
         <v>711577</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="M20" s="7">
         <v>2207</v>
@@ -6635,13 +6611,13 @@
         <v>1310207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6653,7 +6629,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6709,13 +6685,13 @@
         <v>455411</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>501</v>
+        <v>239</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="H22" s="7">
         <v>968</v>
@@ -6724,13 +6700,13 @@
         <v>782550</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="M22" s="7">
         <v>1444</v>
@@ -6739,13 +6715,13 @@
         <v>1237961</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6736,13 @@
         <v>2929817</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>510</v>
+        <v>248</v>
       </c>
       <c r="H23" s="7">
         <v>4399</v>
@@ -6775,28 +6751,28 @@
         <v>3053031</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="M23" s="7">
         <v>7299</v>
       </c>
       <c r="N23" s="7">
-        <v>5982848</v>
+        <v>5982847</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>506</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,7 +6814,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P2C_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{750C8CB9-E4FA-47DF-8EA1-449ABB5C7C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{608E7DBA-796F-4F03-83AA-0ABBD7EAF7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7288FDC6-4935-4031-AFC3-CE9D3A4F1454}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E1A99A6-836F-4703-B5B6-CB1E5EC1E343}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
   <si>
     <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>6,47%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
   </si>
   <si>
     <t>12,25%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>93,53%</t>
   </si>
   <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>87,75%</t>
   </si>
   <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
   </si>
   <si>
     <t>90,72%</t>
   </si>
   <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>24,12%</t>
   </si>
   <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
   </si>
   <si>
     <t>49,06%</t>
   </si>
   <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
   </si>
   <si>
     <t>35,58%</t>
   </si>
   <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
   </si>
   <si>
     <t>50,94%</t>
   </si>
   <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
   </si>
   <si>
     <t>64,42%</t>
   </si>
   <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>44,44%</t>
   </si>
   <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
   </si>
   <si>
     <t>58,04%</t>
   </si>
   <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
   </si>
   <si>
     <t>51,5%</t>
   </si>
   <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
   </si>
   <si>
     <t>55,56%</t>
   </si>
   <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
   </si>
   <si>
     <t>41,96%</t>
   </si>
   <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
   </si>
   <si>
     <t>48,5%</t>
   </si>
   <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>21,44%</t>
   </si>
   <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
   </si>
   <si>
     <t>23,44%</t>
   </si>
   <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
   </si>
   <si>
     <t>22,44%</t>
   </si>
   <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
   </si>
   <si>
     <t>78,56%</t>
   </si>
   <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
   </si>
   <si>
     <t>76,56%</t>
   </si>
   <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
   </si>
   <si>
     <t>77,56%</t>
   </si>
   <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,55 +311,55 @@
     <t>5,37%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>16,87%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
   </si>
   <si>
     <t>94,63%</t>
   </si>
   <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
   </si>
   <si>
     <t>83,13%</t>
   </si>
   <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>88,75%</t>
   </si>
   <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,1096 +368,1114 @@
     <t>7,12%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
   </si>
   <si>
     <t>10,69%</t>
   </si>
   <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
   </si>
   <si>
     <t>91,33%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
   </si>
   <si>
     <t>90,39%</t>
@@ -1974,7 +1992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA53EAAC-54DF-4D5E-A8C3-E8C4C9CC6522}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD24C75-4C08-4A8A-BAD5-12EEBCCC7892}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3076,7 +3094,7 @@
         <v>2577</v>
       </c>
       <c r="D23" s="7">
-        <v>2615477</v>
+        <v>2615476</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -3127,7 +3145,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3193,7 +3211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFDB0BD-DD14-4393-B2B3-0852B1A3A013}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A69F92-8BA2-4879-92F9-F0DF1469D462}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3642,13 +3660,13 @@
         <v>576982</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>944</v>
@@ -3657,13 +3675,13 @@
         <v>994212</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3696,13 @@
         <v>264632</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>124</v>
@@ -3693,13 +3711,13 @@
         <v>133868</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>374</v>
@@ -3708,13 +3726,13 @@
         <v>398500</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3800,13 @@
         <v>232984</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>232</v>
@@ -3797,13 +3815,13 @@
         <v>264780</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>442</v>
@@ -3812,13 +3830,13 @@
         <v>497764</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3851,13 @@
         <v>381633</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>307</v>
@@ -3848,13 +3866,13 @@
         <v>351419</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>645</v>
@@ -3863,13 +3881,13 @@
         <v>733052</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3955,13 @@
         <v>52334</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -3952,13 +3970,13 @@
         <v>99486</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -3967,13 +3985,13 @@
         <v>151820</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +4006,13 @@
         <v>377095</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>318</v>
@@ -4003,13 +4021,13 @@
         <v>348314</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>663</v>
@@ -4018,13 +4036,13 @@
         <v>725409</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4110,13 @@
         <v>41462</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -4107,13 +4125,13 @@
         <v>89571</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>122</v>
@@ -4122,13 +4140,13 @@
         <v>131033</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4161,13 @@
         <v>518175</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>609</v>
@@ -4158,13 +4176,13 @@
         <v>653404</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>1076</v>
@@ -4173,13 +4191,13 @@
         <v>1171579</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4265,13 @@
         <v>1002198</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>1416</v>
@@ -4262,13 +4280,13 @@
         <v>1526936</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>2363</v>
@@ -4277,13 +4295,13 @@
         <v>2529134</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4316,13 @@
         <v>2424581</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>1882</v>
@@ -4313,13 +4331,13 @@
         <v>2031373</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>4144</v>
@@ -4328,13 +4346,13 @@
         <v>4455954</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,7 +4430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17CD373-369F-4BC1-803E-AD4140372C01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC59921-64B0-4D0B-A48F-45F41D6CBD1F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4429,7 +4447,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4536,13 +4554,13 @@
         <v>46194</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>100</v>
@@ -4551,13 +4569,13 @@
         <v>99353</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>142</v>
@@ -4566,13 +4584,13 @@
         <v>145546</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4605,13 @@
         <v>373269</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>304</v>
@@ -4602,13 +4620,13 @@
         <v>296402</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>655</v>
@@ -4617,13 +4635,13 @@
         <v>669672</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4709,13 @@
         <v>186917</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H7" s="7">
         <v>315</v>
@@ -4706,13 +4724,13 @@
         <v>307968</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M7" s="7">
         <v>495</v>
@@ -4721,13 +4739,13 @@
         <v>494885</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4760,13 @@
         <v>403579</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>264</v>
@@ -4757,13 +4775,13 @@
         <v>255576</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M8" s="7">
         <v>651</v>
@@ -4772,13 +4790,13 @@
         <v>659155</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4864,13 @@
         <v>327487</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>429</v>
@@ -4861,13 +4879,13 @@
         <v>427193</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M10" s="7">
         <v>742</v>
@@ -4876,13 +4894,13 @@
         <v>754681</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4915,13 @@
         <v>341610</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H11" s="7">
         <v>236</v>
@@ -4912,13 +4930,13 @@
         <v>234193</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>561</v>
@@ -4927,13 +4945,13 @@
         <v>575802</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +5019,13 @@
         <v>168543</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>179</v>
@@ -5016,28 +5034,28 @@
         <v>192621</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>331</v>
       </c>
       <c r="N13" s="7">
-        <v>361165</v>
+        <v>361164</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5070,13 @@
         <v>477505</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>423</v>
@@ -5067,13 +5085,13 @@
         <v>456456</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>853</v>
@@ -5082,13 +5100,13 @@
         <v>933961</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,7 +5148,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5156,13 +5174,13 @@
         <v>41405</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -5171,13 +5189,13 @@
         <v>61113</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -5186,10 +5204,10 @@
         <v>102518</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>349</v>
@@ -5210,10 +5228,10 @@
         <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>252</v>
+        <v>351</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7">
         <v>380</v>
@@ -5222,13 +5240,13 @@
         <v>435736</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>767</v>
@@ -5237,13 +5255,13 @@
         <v>872249</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,13 +5329,13 @@
         <v>38122</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -5326,13 +5344,13 @@
         <v>90236</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M19" s="7">
         <v>113</v>
@@ -5341,13 +5359,13 @@
         <v>128358</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5380,13 @@
         <v>553206</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H20" s="7">
         <v>582</v>
@@ -5377,13 +5395,13 @@
         <v>687695</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M20" s="7">
         <v>1169</v>
@@ -5392,13 +5410,13 @@
         <v>1240901</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5484,13 @@
         <v>808668</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H22" s="7">
         <v>1149</v>
@@ -5481,13 +5499,13 @@
         <v>1178484</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M22" s="7">
         <v>1913</v>
@@ -5496,13 +5514,13 @@
         <v>1987152</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5535,13 @@
         <v>2585682</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H23" s="7">
         <v>2189</v>
@@ -5532,13 +5550,13 @@
         <v>2366058</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M23" s="7">
         <v>4656</v>
@@ -5547,13 +5565,13 @@
         <v>4951740</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,7 +5649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECB3D03-E265-4752-8C51-AF17BDE34D1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07AAC5F-020A-425A-A436-92C605E3B7C9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5648,7 +5666,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5755,13 +5773,13 @@
         <v>27759</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -5770,13 +5788,13 @@
         <v>36255</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -5785,13 +5803,13 @@
         <v>64014</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5824,13 @@
         <v>349920</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -5821,13 +5839,13 @@
         <v>318702</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M5" s="7">
         <v>340</v>
@@ -5836,13 +5854,13 @@
         <v>668622</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,13 +5928,13 @@
         <v>53810</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H7" s="7">
         <v>102</v>
@@ -5925,13 +5943,13 @@
         <v>108270</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="M7" s="7">
         <v>145</v>
@@ -5940,13 +5958,13 @@
         <v>162080</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +5979,13 @@
         <v>374586</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="H8" s="7">
         <v>359</v>
@@ -5976,13 +5994,13 @@
         <v>390945</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M8" s="7">
         <v>618</v>
@@ -5991,13 +6009,13 @@
         <v>765531</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6083,13 @@
         <v>121388</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H10" s="7">
         <v>200</v>
@@ -6080,13 +6098,13 @@
         <v>149706</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M10" s="7">
         <v>315</v>
@@ -6095,13 +6113,13 @@
         <v>271095</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6134,13 @@
         <v>435864</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H11" s="7">
         <v>648</v>
@@ -6131,13 +6149,13 @@
         <v>460741</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M11" s="7">
         <v>1079</v>
@@ -6146,13 +6164,13 @@
         <v>896604</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6238,13 @@
         <v>100903</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H13" s="7">
         <v>163</v>
@@ -6235,13 +6253,13 @@
         <v>110668</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="M13" s="7">
         <v>258</v>
@@ -6250,13 +6268,13 @@
         <v>211571</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6289,13 @@
         <v>623087</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H14" s="7">
         <v>978</v>
@@ -6286,13 +6304,13 @@
         <v>636593</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M14" s="7">
         <v>1548</v>
@@ -6301,13 +6319,13 @@
         <v>1259680</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6393,13 @@
         <v>52427</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -6390,13 +6408,13 @@
         <v>62590</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>469</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="M16" s="7">
         <v>158</v>
@@ -6405,13 +6423,13 @@
         <v>115017</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6444,13 @@
         <v>547730</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="H17" s="7">
         <v>901</v>
@@ -6441,13 +6459,13 @@
         <v>534473</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>478</v>
       </c>
       <c r="M17" s="7">
         <v>1507</v>
@@ -6456,13 +6474,13 @@
         <v>1082203</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6548,13 @@
         <v>99125</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="H19" s="7">
         <v>378</v>
@@ -6545,13 +6563,13 @@
         <v>315060</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="M19" s="7">
         <v>529</v>
@@ -6560,13 +6578,13 @@
         <v>414185</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,13 +6599,13 @@
         <v>598630</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
         <v>1330</v>
@@ -6596,13 +6614,13 @@
         <v>711577</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="M20" s="7">
         <v>2207</v>
@@ -6611,13 +6629,13 @@
         <v>1310207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6703,13 @@
         <v>455411</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="H22" s="7">
         <v>968</v>
@@ -6700,13 +6718,13 @@
         <v>782550</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="M22" s="7">
         <v>1444</v>
@@ -6715,13 +6733,13 @@
         <v>1237961</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6754,13 @@
         <v>2929817</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H23" s="7">
         <v>4399</v>
@@ -6751,13 +6769,13 @@
         <v>3053031</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="M23" s="7">
         <v>7299</v>
@@ -6766,13 +6784,13 @@
         <v>5982847</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P2C_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{608E7DBA-796F-4F03-83AA-0ABBD7EAF7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D909DDB-5CA5-4819-9E9E-CC470F330176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E1A99A6-836F-4703-B5B6-CB1E5EC1E343}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1C6E735-9627-4F0B-9466-514374EE3E8C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="516">
+  <si>
+    <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2007 (Tasa respuesta: 63,28%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,1516 +71,1522 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
+    <t>SÍ</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2012 (Tasa respuesta: 66,65%)</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
   </si>
   <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
   </si>
   <si>
     <t>88,61%</t>
   </si>
   <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2016 (Tasa respuesta: 61,24%)</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
   </si>
   <si>
     <t>9,06%</t>
   </si>
   <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
   </si>
   <si>
     <t>90,94%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
   </si>
   <si>
     <t>87,94%</t>
   </si>
   <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
   </si>
 </sst>
 </file>
@@ -1992,7 +1998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD24C75-4C08-4A8A-BAD5-12EEBCCC7892}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EE1793-5678-48A6-A2FA-65208CFE8183}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2110,10 +2116,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7">
-        <v>31962</v>
+        <v>38381</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2125,10 +2131,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I4" s="7">
-        <v>57245</v>
+        <v>63432</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2140,10 +2146,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="N4" s="7">
-        <v>89207</v>
+        <v>101813</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2161,10 +2167,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>468</v>
+        <v>156</v>
       </c>
       <c r="D5" s="7">
-        <v>462102</v>
+        <v>153446</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2176,10 +2182,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>430</v>
+        <v>134</v>
       </c>
       <c r="I5" s="7">
-        <v>410244</v>
+        <v>126341</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2191,10 +2197,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>898</v>
+        <v>290</v>
       </c>
       <c r="N5" s="7">
-        <v>872346</v>
+        <v>279787</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2212,10 +2218,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>499</v>
+        <v>194</v>
       </c>
       <c r="D6" s="7">
-        <v>494064</v>
+        <v>191827</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2227,10 +2233,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>489</v>
+        <v>200</v>
       </c>
       <c r="I6" s="7">
-        <v>467489</v>
+        <v>189773</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2242,10 +2248,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>988</v>
+        <v>394</v>
       </c>
       <c r="N6" s="7">
-        <v>961553</v>
+        <v>381600</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2265,10 +2271,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D7" s="7">
-        <v>177417</v>
+        <v>179498</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2280,10 +2286,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="I7" s="7">
-        <v>306877</v>
+        <v>312086</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2295,10 +2301,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="N7" s="7">
-        <v>484294</v>
+        <v>491584</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2316,10 +2322,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>535</v>
+        <v>126</v>
       </c>
       <c r="D8" s="7">
-        <v>558072</v>
+        <v>127965</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2331,10 +2337,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>301</v>
+        <v>89</v>
       </c>
       <c r="I8" s="7">
-        <v>318617</v>
+        <v>95646</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2346,10 +2352,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>836</v>
+        <v>215</v>
       </c>
       <c r="N8" s="7">
-        <v>876688</v>
+        <v>223611</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2367,10 +2373,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>703</v>
+        <v>296</v>
       </c>
       <c r="D9" s="7">
-        <v>735489</v>
+        <v>307463</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2382,10 +2388,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>591</v>
+        <v>384</v>
       </c>
       <c r="I9" s="7">
-        <v>625494</v>
+        <v>407732</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2397,10 +2403,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1294</v>
+        <v>680</v>
       </c>
       <c r="N9" s="7">
-        <v>1360982</v>
+        <v>715195</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2420,10 +2426,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="D10" s="7">
-        <v>283817</v>
+        <v>307568</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2435,10 +2441,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="I10" s="7">
-        <v>400330</v>
+        <v>408555</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2450,10 +2456,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>657</v>
+        <v>685</v>
       </c>
       <c r="N10" s="7">
-        <v>684146</v>
+        <v>716123</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2471,10 +2477,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>337</v>
+        <v>197</v>
       </c>
       <c r="D11" s="7">
-        <v>354851</v>
+        <v>202761</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2486,10 +2492,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>277</v>
+        <v>175</v>
       </c>
       <c r="I11" s="7">
-        <v>289414</v>
+        <v>180937</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2501,10 +2507,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>614</v>
+        <v>372</v>
       </c>
       <c r="N11" s="7">
-        <v>644266</v>
+        <v>383699</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2522,10 +2528,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>613</v>
+        <v>493</v>
       </c>
       <c r="D12" s="7">
-        <v>638668</v>
+        <v>510329</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2537,10 +2543,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>658</v>
+        <v>564</v>
       </c>
       <c r="I12" s="7">
-        <v>689744</v>
+        <v>589492</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2552,10 +2558,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1271</v>
+        <v>1057</v>
       </c>
       <c r="N12" s="7">
-        <v>1328412</v>
+        <v>1099822</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2575,10 +2581,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D13" s="7">
-        <v>111312</v>
+        <v>119486</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2590,10 +2596,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I13" s="7">
-        <v>120846</v>
+        <v>128026</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2605,10 +2611,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="N13" s="7">
-        <v>232158</v>
+        <v>247512</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2626,10 +2632,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="D14" s="7">
-        <v>407835</v>
+        <v>170552</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2641,10 +2647,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>386</v>
+        <v>108</v>
       </c>
       <c r="I14" s="7">
-        <v>394796</v>
+        <v>110017</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2656,10 +2662,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>766</v>
+        <v>268</v>
       </c>
       <c r="N14" s="7">
-        <v>802631</v>
+        <v>280570</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2677,10 +2683,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>484</v>
+        <v>272</v>
       </c>
       <c r="D15" s="7">
-        <v>519147</v>
+        <v>290038</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2692,10 +2698,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>502</v>
+        <v>231</v>
       </c>
       <c r="I15" s="7">
-        <v>515642</v>
+        <v>238043</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2707,10 +2713,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>986</v>
+        <v>503</v>
       </c>
       <c r="N15" s="7">
-        <v>1034789</v>
+        <v>528082</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2730,10 +2736,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>20765</v>
+        <v>21701</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2745,10 +2751,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I16" s="7">
-        <v>68152</v>
+        <v>70196</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2760,10 +2766,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N16" s="7">
-        <v>88917</v>
+        <v>91896</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2781,10 +2787,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>372</v>
+        <v>86</v>
       </c>
       <c r="D17" s="7">
-        <v>365945</v>
+        <v>86401</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2796,10 +2802,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>330</v>
+        <v>128</v>
       </c>
       <c r="I17" s="7">
-        <v>335834</v>
+        <v>130183</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2811,10 +2817,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>702</v>
+        <v>214</v>
       </c>
       <c r="N17" s="7">
-        <v>701779</v>
+        <v>216585</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2832,10 +2838,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>392</v>
+        <v>107</v>
       </c>
       <c r="D18" s="7">
-        <v>386710</v>
+        <v>108102</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2847,10 +2853,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>396</v>
+        <v>196</v>
       </c>
       <c r="I18" s="7">
-        <v>403986</v>
+        <v>200379</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2862,10 +2868,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>788</v>
+        <v>303</v>
       </c>
       <c r="N18" s="7">
-        <v>790696</v>
+        <v>308481</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2885,10 +2891,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D19" s="7">
-        <v>35794</v>
+        <v>39370</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2900,10 +2906,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I19" s="7">
-        <v>72361</v>
+        <v>76404</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2915,10 +2921,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N19" s="7">
-        <v>108155</v>
+        <v>115774</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2936,10 +2942,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D20" s="7">
-        <v>466672</v>
+        <v>463096</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2951,10 +2957,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="I20" s="7">
-        <v>604481</v>
+        <v>599539</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2966,10 +2972,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="N20" s="7">
-        <v>1071153</v>
+        <v>1062635</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -3002,10 +3008,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>675943</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3017,10 +3023,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>1178409</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3040,10 +3046,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>637</v>
+        <v>679</v>
       </c>
       <c r="D22" s="7">
-        <v>661067</v>
+        <v>706004</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>126</v>
@@ -3055,10 +3061,10 @@
         <v>128</v>
       </c>
       <c r="H22" s="7">
-        <v>985</v>
+        <v>1018</v>
       </c>
       <c r="I22" s="7">
-        <v>1025811</v>
+        <v>1058698</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>129</v>
@@ -3070,10 +3076,10 @@
         <v>131</v>
       </c>
       <c r="M22" s="7">
-        <v>1622</v>
+        <v>1697</v>
       </c>
       <c r="N22" s="7">
-        <v>1686877</v>
+        <v>1764702</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>132</v>
@@ -3091,10 +3097,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2577</v>
+        <v>1206</v>
       </c>
       <c r="D23" s="7">
-        <v>2615476</v>
+        <v>1204222</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -3106,10 +3112,10 @@
         <v>137</v>
       </c>
       <c r="H23" s="7">
-        <v>2312</v>
+        <v>1217</v>
       </c>
       <c r="I23" s="7">
-        <v>2353387</v>
+        <v>1242664</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>138</v>
@@ -3121,10 +3127,10 @@
         <v>140</v>
       </c>
       <c r="M23" s="7">
-        <v>4889</v>
+        <v>2423</v>
       </c>
       <c r="N23" s="7">
-        <v>4968864</v>
+        <v>2446886</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>141</v>
@@ -3142,10 +3148,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>3214</v>
+        <v>1885</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>1910226</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3157,10 +3163,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>3297</v>
+        <v>2235</v>
       </c>
       <c r="I24" s="7">
-        <v>3379198</v>
+        <v>2301362</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -3172,10 +3178,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>6511</v>
+        <v>4120</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>4211588</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3211,7 +3217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A69F92-8BA2-4879-92F9-F0DF1469D462}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B0CA84-71F3-4183-B9D5-A17B093C01A1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3329,10 +3335,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7">
-        <v>41950</v>
+        <v>54037</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>146</v>
@@ -3344,10 +3350,10 @@
         <v>148</v>
       </c>
       <c r="H4" s="7">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="I4" s="7">
-        <v>104606</v>
+        <v>118550</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>149</v>
@@ -3359,10 +3365,10 @@
         <v>151</v>
       </c>
       <c r="M4" s="7">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="N4" s="7">
-        <v>146557</v>
+        <v>172586</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>152</v>
@@ -3380,10 +3386,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>405</v>
+        <v>121</v>
       </c>
       <c r="D5" s="7">
-        <v>412196</v>
+        <v>122443</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>155</v>
@@ -3395,10 +3401,10 @@
         <v>157</v>
       </c>
       <c r="H5" s="7">
-        <v>319</v>
+        <v>97</v>
       </c>
       <c r="I5" s="7">
-        <v>325624</v>
+        <v>98240</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>158</v>
@@ -3410,10 +3416,10 @@
         <v>160</v>
       </c>
       <c r="M5" s="7">
-        <v>724</v>
+        <v>218</v>
       </c>
       <c r="N5" s="7">
-        <v>737819</v>
+        <v>220683</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>161</v>
@@ -3431,10 +3437,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>446</v>
+        <v>173</v>
       </c>
       <c r="D6" s="7">
-        <v>454146</v>
+        <v>176480</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3446,10 +3452,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>421</v>
+        <v>213</v>
       </c>
       <c r="I6" s="7">
-        <v>430230</v>
+        <v>216790</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3461,10 +3467,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>867</v>
+        <v>386</v>
       </c>
       <c r="N6" s="7">
-        <v>884376</v>
+        <v>393269</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3484,10 +3490,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D7" s="7">
-        <v>216236</v>
+        <v>218163</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>164</v>
@@ -3502,31 +3508,31 @@
         <v>366</v>
       </c>
       <c r="I7" s="7">
-        <v>391511</v>
+        <v>391512</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>578</v>
+      </c>
+      <c r="N7" s="7">
+        <v>609675</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="M7" s="7">
-        <v>576</v>
-      </c>
-      <c r="N7" s="7">
-        <v>607748</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,49 +3541,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>457</v>
+        <v>98</v>
       </c>
       <c r="D8" s="7">
-        <v>470851</v>
+        <v>102369</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>31</v>
+      </c>
+      <c r="I8" s="7">
+        <v>33284</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H8" s="7">
-        <v>205</v>
-      </c>
-      <c r="I8" s="7">
-        <v>218744</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>129</v>
+      </c>
+      <c r="N8" s="7">
+        <v>135653</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="M8" s="7">
-        <v>662</v>
-      </c>
-      <c r="N8" s="7">
-        <v>689594</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,10 +3592,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>667</v>
+        <v>310</v>
       </c>
       <c r="D9" s="7">
-        <v>687087</v>
+        <v>320532</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3601,10 +3607,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>571</v>
+        <v>397</v>
       </c>
       <c r="I9" s="7">
-        <v>610255</v>
+        <v>424796</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3616,10 +3622,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1238</v>
+        <v>707</v>
       </c>
       <c r="N9" s="7">
-        <v>1297342</v>
+        <v>745328</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3639,49 +3645,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="D10" s="7">
-        <v>417231</v>
+        <v>423869</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>545</v>
+      </c>
+      <c r="I10" s="7">
+        <v>578861</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H10" s="7">
-        <v>543</v>
-      </c>
-      <c r="I10" s="7">
-        <v>576982</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>953</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1002731</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M10" s="7">
-        <v>944</v>
-      </c>
-      <c r="N10" s="7">
-        <v>994212</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,28 +3696,28 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="D11" s="7">
-        <v>264632</v>
+        <v>145686</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>29</v>
+      </c>
+      <c r="I11" s="7">
+        <v>30904</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="H11" s="7">
-        <v>124</v>
-      </c>
-      <c r="I11" s="7">
-        <v>133868</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>193</v>
@@ -3720,10 +3726,10 @@
         <v>194</v>
       </c>
       <c r="M11" s="7">
-        <v>374</v>
+        <v>168</v>
       </c>
       <c r="N11" s="7">
-        <v>398500</v>
+        <v>176589</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>195</v>
@@ -3741,10 +3747,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>651</v>
+        <v>547</v>
       </c>
       <c r="D12" s="7">
-        <v>681863</v>
+        <v>569555</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3756,10 +3762,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>667</v>
+        <v>574</v>
       </c>
       <c r="I12" s="7">
-        <v>710850</v>
+        <v>609765</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3771,10 +3777,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1318</v>
+        <v>1121</v>
       </c>
       <c r="N12" s="7">
-        <v>1392712</v>
+        <v>1179320</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3794,10 +3800,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D13" s="7">
-        <v>232984</v>
+        <v>242627</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>198</v>
@@ -3809,10 +3815,10 @@
         <v>200</v>
       </c>
       <c r="H13" s="7">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I13" s="7">
-        <v>264780</v>
+        <v>265845</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>201</v>
@@ -3824,10 +3830,10 @@
         <v>203</v>
       </c>
       <c r="M13" s="7">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="N13" s="7">
-        <v>497764</v>
+        <v>508472</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>204</v>
@@ -3845,10 +3851,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>338</v>
+        <v>116</v>
       </c>
       <c r="D14" s="7">
-        <v>381633</v>
+        <v>132547</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>207</v>
@@ -3860,10 +3866,10 @@
         <v>209</v>
       </c>
       <c r="H14" s="7">
-        <v>307</v>
+        <v>36</v>
       </c>
       <c r="I14" s="7">
-        <v>351419</v>
+        <v>41871</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>210</v>
@@ -3875,10 +3881,10 @@
         <v>212</v>
       </c>
       <c r="M14" s="7">
-        <v>645</v>
+        <v>152</v>
       </c>
       <c r="N14" s="7">
-        <v>733052</v>
+        <v>174418</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>213</v>
@@ -3896,10 +3902,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>548</v>
+        <v>335</v>
       </c>
       <c r="D15" s="7">
-        <v>614617</v>
+        <v>375174</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3911,10 +3917,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>539</v>
+        <v>269</v>
       </c>
       <c r="I15" s="7">
-        <v>616199</v>
+        <v>307716</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3926,10 +3932,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1087</v>
+        <v>604</v>
       </c>
       <c r="N15" s="7">
-        <v>1230816</v>
+        <v>682890</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3949,10 +3955,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D16" s="7">
-        <v>52334</v>
+        <v>64495</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>216</v>
@@ -3964,10 +3970,10 @@
         <v>218</v>
       </c>
       <c r="H16" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I16" s="7">
-        <v>99486</v>
+        <v>100491</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>219</v>
@@ -3979,10 +3985,10 @@
         <v>221</v>
       </c>
       <c r="M16" s="7">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="N16" s="7">
-        <v>151820</v>
+        <v>164986</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>222</v>
@@ -4000,10 +4006,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>345</v>
+        <v>71</v>
       </c>
       <c r="D17" s="7">
-        <v>377095</v>
+        <v>77269</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>225</v>
@@ -4015,10 +4021,10 @@
         <v>227</v>
       </c>
       <c r="H17" s="7">
-        <v>318</v>
+        <v>114</v>
       </c>
       <c r="I17" s="7">
-        <v>348314</v>
+        <v>121627</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>228</v>
@@ -4030,10 +4036,10 @@
         <v>230</v>
       </c>
       <c r="M17" s="7">
-        <v>663</v>
+        <v>185</v>
       </c>
       <c r="N17" s="7">
-        <v>725409</v>
+        <v>198896</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>231</v>
@@ -4051,10 +4057,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>393</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7">
-        <v>429429</v>
+        <v>141764</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4066,10 +4072,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>406</v>
+        <v>203</v>
       </c>
       <c r="I18" s="7">
-        <v>447800</v>
+        <v>222118</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4081,10 +4087,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>799</v>
+        <v>334</v>
       </c>
       <c r="N18" s="7">
-        <v>877229</v>
+        <v>363882</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4104,10 +4110,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D19" s="7">
-        <v>41462</v>
+        <v>52051</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>234</v>
@@ -4119,10 +4125,10 @@
         <v>236</v>
       </c>
       <c r="H19" s="7">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I19" s="7">
-        <v>89571</v>
+        <v>94764</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>237</v>
@@ -4134,10 +4140,10 @@
         <v>239</v>
       </c>
       <c r="M19" s="7">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="N19" s="7">
-        <v>131033</v>
+        <v>146815</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>240</v>
@@ -4155,10 +4161,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="D20" s="7">
-        <v>518175</v>
+        <v>501771</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>243</v>
@@ -4170,10 +4176,10 @@
         <v>245</v>
       </c>
       <c r="H20" s="7">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="I20" s="7">
-        <v>653404</v>
+        <v>640881</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>246</v>
@@ -4185,10 +4191,10 @@
         <v>248</v>
       </c>
       <c r="M20" s="7">
-        <v>1076</v>
+        <v>1049</v>
       </c>
       <c r="N20" s="7">
-        <v>1171579</v>
+        <v>1142651</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>249</v>
@@ -4206,10 +4212,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>553822</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4221,10 +4227,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>735645</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4236,10 +4242,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>1185</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>1289466</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4259,10 +4265,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>947</v>
+        <v>997</v>
       </c>
       <c r="D22" s="7">
-        <v>1002198</v>
+        <v>1055242</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>252</v>
@@ -4274,10 +4280,10 @@
         <v>254</v>
       </c>
       <c r="H22" s="7">
-        <v>1416</v>
+        <v>1439</v>
       </c>
       <c r="I22" s="7">
-        <v>1526936</v>
+        <v>1550023</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>255</v>
@@ -4289,10 +4295,10 @@
         <v>257</v>
       </c>
       <c r="M22" s="7">
-        <v>2363</v>
+        <v>2436</v>
       </c>
       <c r="N22" s="7">
-        <v>2529134</v>
+        <v>2605265</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>258</v>
@@ -4310,10 +4316,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2262</v>
+        <v>997</v>
       </c>
       <c r="D23" s="7">
-        <v>2424581</v>
+        <v>1082084</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>261</v>
@@ -4325,10 +4331,10 @@
         <v>263</v>
       </c>
       <c r="H23" s="7">
-        <v>1882</v>
+        <v>904</v>
       </c>
       <c r="I23" s="7">
-        <v>2031373</v>
+        <v>966807</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>264</v>
@@ -4340,10 +4346,10 @@
         <v>266</v>
       </c>
       <c r="M23" s="7">
-        <v>4144</v>
+        <v>1901</v>
       </c>
       <c r="N23" s="7">
-        <v>4455954</v>
+        <v>2048891</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>267</v>
@@ -4361,10 +4367,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>3209</v>
+        <v>1994</v>
       </c>
       <c r="D24" s="7">
-        <v>3426779</v>
+        <v>2137326</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4376,10 +4382,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>3298</v>
+        <v>2343</v>
       </c>
       <c r="I24" s="7">
-        <v>3558309</v>
+        <v>2516830</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4391,10 +4397,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>6507</v>
+        <v>4337</v>
       </c>
       <c r="N24" s="7">
-        <v>6985088</v>
+        <v>4654156</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4430,7 +4436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC59921-64B0-4D0B-A48F-45F41D6CBD1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49967EF3-C869-445B-A2BB-77A980C03B44}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4548,49 +4554,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D4" s="7">
-        <v>46194</v>
+        <v>49659</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>102</v>
+      </c>
+      <c r="I4" s="7">
+        <v>101867</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="H4" s="7">
-        <v>100</v>
-      </c>
-      <c r="I4" s="7">
-        <v>99353</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>147</v>
+      </c>
+      <c r="N4" s="7">
+        <v>151526</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="M4" s="7">
-        <v>142</v>
-      </c>
-      <c r="N4" s="7">
-        <v>145546</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,49 +4605,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>351</v>
+        <v>98</v>
       </c>
       <c r="D5" s="7">
-        <v>373269</v>
+        <v>105070</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>75</v>
+      </c>
+      <c r="I5" s="7">
+        <v>73082</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="H5" s="7">
-        <v>304</v>
-      </c>
-      <c r="I5" s="7">
-        <v>296402</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>173</v>
+      </c>
+      <c r="N5" s="7">
+        <v>178152</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="M5" s="7">
-        <v>655</v>
-      </c>
-      <c r="N5" s="7">
-        <v>669672</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,10 +4656,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>393</v>
+        <v>143</v>
       </c>
       <c r="D6" s="7">
-        <v>419463</v>
+        <v>154729</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4665,10 +4671,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>404</v>
+        <v>177</v>
       </c>
       <c r="I6" s="7">
-        <v>395755</v>
+        <v>174949</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4680,10 +4686,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>797</v>
+        <v>320</v>
       </c>
       <c r="N6" s="7">
-        <v>815218</v>
+        <v>329678</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4703,49 +4709,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7">
-        <v>186917</v>
+        <v>194385</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7" s="7">
+        <v>318</v>
+      </c>
+      <c r="I7" s="7">
+        <v>311377</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="H7" s="7">
-        <v>315</v>
-      </c>
-      <c r="I7" s="7">
-        <v>307968</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>505</v>
+      </c>
+      <c r="N7" s="7">
+        <v>505762</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="M7" s="7">
-        <v>495</v>
-      </c>
-      <c r="N7" s="7">
-        <v>494885</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,49 +4760,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>387</v>
+        <v>62</v>
       </c>
       <c r="D8" s="7">
-        <v>403579</v>
+        <v>66312</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H8" s="7">
+        <v>49</v>
+      </c>
+      <c r="I8" s="7">
+        <v>47016</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>111</v>
+      </c>
+      <c r="N8" s="7">
+        <v>113328</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="H8" s="7">
-        <v>264</v>
-      </c>
-      <c r="I8" s="7">
-        <v>255576</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M8" s="7">
-        <v>651</v>
-      </c>
-      <c r="N8" s="7">
-        <v>659155</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,10 +4811,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>567</v>
+        <v>249</v>
       </c>
       <c r="D9" s="7">
-        <v>590496</v>
+        <v>260697</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4820,10 +4826,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>579</v>
+        <v>367</v>
       </c>
       <c r="I9" s="7">
-        <v>563544</v>
+        <v>358393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4835,10 +4841,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>616</v>
       </c>
       <c r="N9" s="7">
-        <v>1154040</v>
+        <v>619090</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4858,49 +4864,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D10" s="7">
-        <v>327487</v>
+        <v>334284</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" s="7">
+        <v>433</v>
+      </c>
+      <c r="I10" s="7">
+        <v>430847</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>753</v>
+      </c>
+      <c r="N10" s="7">
+        <v>765130</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H10" s="7">
-        <v>429</v>
-      </c>
-      <c r="I10" s="7">
-        <v>427193</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M10" s="7">
-        <v>742</v>
-      </c>
-      <c r="N10" s="7">
-        <v>754681</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,49 +4915,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>325</v>
+        <v>127</v>
       </c>
       <c r="D11" s="7">
-        <v>341610</v>
+        <v>130092</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H11" s="7">
+        <v>112</v>
+      </c>
+      <c r="I11" s="7">
+        <v>110362</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>239</v>
+      </c>
+      <c r="N11" s="7">
+        <v>240454</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="H11" s="7">
-        <v>236</v>
-      </c>
-      <c r="I11" s="7">
-        <v>234193</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="M11" s="7">
-        <v>561</v>
-      </c>
-      <c r="N11" s="7">
-        <v>575802</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,10 +4966,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>638</v>
+        <v>447</v>
       </c>
       <c r="D12" s="7">
-        <v>669097</v>
+        <v>464376</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4975,10 +4981,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>665</v>
+        <v>545</v>
       </c>
       <c r="I12" s="7">
-        <v>661386</v>
+        <v>541209</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4990,10 +4996,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1303</v>
+        <v>992</v>
       </c>
       <c r="N12" s="7">
-        <v>1330483</v>
+        <v>1005584</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5013,49 +5019,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D13" s="7">
-        <v>168543</v>
+        <v>174789</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H13" s="7">
+        <v>181</v>
+      </c>
+      <c r="I13" s="7">
+        <v>194646</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>339</v>
+      </c>
+      <c r="N13" s="7">
+        <v>369435</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="H13" s="7">
-        <v>179</v>
-      </c>
-      <c r="I13" s="7">
-        <v>192621</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M13" s="7">
-        <v>331</v>
-      </c>
-      <c r="N13" s="7">
-        <v>361164</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,49 +5070,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>430</v>
+        <v>150</v>
       </c>
       <c r="D14" s="7">
-        <v>477505</v>
+        <v>165169</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H14" s="7">
+        <v>113</v>
+      </c>
+      <c r="I14" s="7">
+        <v>121210</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>263</v>
+      </c>
+      <c r="N14" s="7">
+        <v>286379</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="H14" s="7">
-        <v>423</v>
-      </c>
-      <c r="I14" s="7">
-        <v>456456</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="M14" s="7">
-        <v>853</v>
-      </c>
-      <c r="N14" s="7">
-        <v>933961</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,10 +5121,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>582</v>
+        <v>308</v>
       </c>
       <c r="D15" s="7">
-        <v>646048</v>
+        <v>339958</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5130,25 +5136,25 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
+        <v>294</v>
+      </c>
+      <c r="I15" s="7">
+        <v>315856</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
         <v>602</v>
       </c>
-      <c r="I15" s="7">
-        <v>649077</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
-        <v>1184</v>
-      </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>655814</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5168,19 +5174,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7">
-        <v>41405</v>
+        <v>42571</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -5189,28 +5195,28 @@
         <v>61113</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M16" s="7">
+        <v>91</v>
+      </c>
+      <c r="N16" s="7">
+        <v>103684</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="M16" s="7">
-        <v>90</v>
-      </c>
-      <c r="N16" s="7">
-        <v>102518</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,49 +5225,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>387</v>
+        <v>77</v>
       </c>
       <c r="D17" s="7">
-        <v>436513</v>
+        <v>87663</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H17" s="7">
+        <v>125</v>
+      </c>
+      <c r="I17" s="7">
+        <v>143468</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>202</v>
+      </c>
+      <c r="N17" s="7">
+        <v>231130</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="H17" s="7">
-        <v>380</v>
-      </c>
-      <c r="I17" s="7">
-        <v>435736</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="M17" s="7">
-        <v>767</v>
-      </c>
-      <c r="N17" s="7">
-        <v>872249</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,10 +5276,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>424</v>
+        <v>115</v>
       </c>
       <c r="D18" s="7">
-        <v>477918</v>
+        <v>130234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5285,10 +5291,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>433</v>
+        <v>178</v>
       </c>
       <c r="I18" s="7">
-        <v>496849</v>
+        <v>204581</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5300,10 +5306,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>857</v>
+        <v>293</v>
       </c>
       <c r="N18" s="7">
-        <v>974767</v>
+        <v>334814</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5323,49 +5329,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D19" s="7">
-        <v>38122</v>
+        <v>42723</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H19" s="7">
+        <v>79</v>
+      </c>
+      <c r="I19" s="7">
+        <v>97124</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>124</v>
+      </c>
+      <c r="N19" s="7">
+        <v>139847</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="H19" s="7">
-        <v>73</v>
-      </c>
-      <c r="I19" s="7">
-        <v>90236</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="M19" s="7">
-        <v>113</v>
-      </c>
-      <c r="N19" s="7">
-        <v>128358</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,49 +5380,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>587</v>
+        <v>535</v>
       </c>
       <c r="D20" s="7">
-        <v>553206</v>
+        <v>504212</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H20" s="7">
+        <v>541</v>
+      </c>
+      <c r="I20" s="7">
+        <v>642909</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1076</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1147121</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="H20" s="7">
-        <v>582</v>
-      </c>
-      <c r="I20" s="7">
-        <v>687695</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1169</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1240901</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,10 +5431,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>580</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>546935</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5440,10 +5446,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>620</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>740033</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5455,10 +5461,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>1200</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>1286968</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5478,49 +5484,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>764</v>
+        <v>793</v>
       </c>
       <c r="D22" s="7">
-        <v>808668</v>
+        <v>838411</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1166</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1196973</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1959</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2035384</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="H22" s="7">
-        <v>1149</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1178484</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1913</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1987152</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,49 +5535,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2467</v>
+        <v>1049</v>
       </c>
       <c r="D23" s="7">
-        <v>2585682</v>
+        <v>1058517</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1015</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1138047</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="M23" s="7">
+        <v>2064</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2196564</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="H23" s="7">
-        <v>2189</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2366058</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="M23" s="7">
-        <v>4656</v>
-      </c>
-      <c r="N23" s="7">
-        <v>4951740</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,10 +5586,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>3231</v>
+        <v>1842</v>
       </c>
       <c r="D24" s="7">
-        <v>3394350</v>
+        <v>1896928</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5595,10 +5601,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>3338</v>
+        <v>2181</v>
       </c>
       <c r="I24" s="7">
-        <v>3544542</v>
+        <v>2335020</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -5610,10 +5616,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>6569</v>
+        <v>4023</v>
       </c>
       <c r="N24" s="7">
-        <v>6938892</v>
+        <v>4231948</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5649,7 +5655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07AAC5F-020A-425A-A436-92C605E3B7C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290FC7A3-B47E-4FC8-BFE0-BB13631CD02B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5666,7 +5672,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5767,49 +5773,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>27759</v>
+        <v>13258</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H4" s="7">
+        <v>16</v>
+      </c>
+      <c r="I4" s="7">
+        <v>25372</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M4" s="7">
+        <v>23</v>
+      </c>
+      <c r="N4" s="7">
+        <v>38629</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="H4" s="7">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7">
-        <v>36255</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="M4" s="7">
-        <v>39</v>
-      </c>
-      <c r="N4" s="7">
-        <v>64014</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,49 +5824,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D5" s="7">
-        <v>349920</v>
+        <v>364421</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H5" s="7">
+        <v>191</v>
+      </c>
+      <c r="I5" s="7">
+        <v>329585</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="M5" s="7">
+        <v>356</v>
+      </c>
+      <c r="N5" s="7">
+        <v>694007</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="H5" s="7">
-        <v>183</v>
-      </c>
-      <c r="I5" s="7">
-        <v>318702</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="M5" s="7">
-        <v>340</v>
-      </c>
-      <c r="N5" s="7">
-        <v>668622</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,49 +5928,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>53810</v>
+        <v>35836</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H7" s="7">
+        <v>92</v>
+      </c>
+      <c r="I7" s="7">
+        <v>97531</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="M7" s="7">
+        <v>124</v>
+      </c>
+      <c r="N7" s="7">
+        <v>133367</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="H7" s="7">
-        <v>102</v>
-      </c>
-      <c r="I7" s="7">
-        <v>108270</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="M7" s="7">
-        <v>145</v>
-      </c>
-      <c r="N7" s="7">
-        <v>162080</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,49 +5979,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D8" s="7">
-        <v>374586</v>
+        <v>392560</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H8" s="7">
+        <v>369</v>
+      </c>
+      <c r="I8" s="7">
+        <v>401684</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="M8" s="7">
+        <v>639</v>
+      </c>
+      <c r="N8" s="7">
+        <v>794244</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="H8" s="7">
-        <v>359</v>
-      </c>
-      <c r="I8" s="7">
-        <v>390945</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="M8" s="7">
-        <v>618</v>
-      </c>
-      <c r="N8" s="7">
-        <v>765531</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,49 +6083,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D10" s="7">
-        <v>121388</v>
+        <v>98506</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H10" s="7">
+        <v>177</v>
+      </c>
+      <c r="I10" s="7">
+        <v>132382</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="M10" s="7">
+        <v>268</v>
+      </c>
+      <c r="N10" s="7">
+        <v>230888</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="H10" s="7">
-        <v>200</v>
-      </c>
-      <c r="I10" s="7">
-        <v>149706</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="M10" s="7">
-        <v>315</v>
-      </c>
-      <c r="N10" s="7">
-        <v>271095</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,49 +6134,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="D11" s="7">
-        <v>435864</v>
+        <v>458746</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H11" s="7">
+        <v>671</v>
+      </c>
+      <c r="I11" s="7">
+        <v>478065</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1126</v>
+      </c>
+      <c r="N11" s="7">
+        <v>936811</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="H11" s="7">
-        <v>648</v>
-      </c>
-      <c r="I11" s="7">
-        <v>460741</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1079</v>
-      </c>
-      <c r="N11" s="7">
-        <v>896604</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,49 +6238,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D13" s="7">
-        <v>100903</v>
+        <v>74801</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H13" s="7">
+        <v>146</v>
+      </c>
+      <c r="I13" s="7">
+        <v>99632</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="M13" s="7">
+        <v>216</v>
+      </c>
+      <c r="N13" s="7">
+        <v>174433</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="H13" s="7">
-        <v>163</v>
-      </c>
-      <c r="I13" s="7">
-        <v>110668</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="M13" s="7">
-        <v>258</v>
-      </c>
-      <c r="N13" s="7">
-        <v>211571</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,49 +6289,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>570</v>
+        <v>595</v>
       </c>
       <c r="D14" s="7">
-        <v>623087</v>
+        <v>649189</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H14" s="7">
+        <v>995</v>
+      </c>
+      <c r="I14" s="7">
+        <v>647629</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1590</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1296819</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="H14" s="7">
-        <v>978</v>
-      </c>
-      <c r="I14" s="7">
-        <v>636593</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1548</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1259680</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,7 +6373,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6387,49 +6393,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>52427</v>
+        <v>34312</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H16" s="7">
+        <v>78</v>
+      </c>
+      <c r="I16" s="7">
+        <v>47562</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="H16" s="7">
-        <v>101</v>
-      </c>
-      <c r="I16" s="7">
-        <v>62590</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>115</v>
+      </c>
+      <c r="N16" s="7">
+        <v>81875</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="M16" s="7">
-        <v>158</v>
-      </c>
-      <c r="N16" s="7">
-        <v>115017</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,49 +6444,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="D17" s="7">
-        <v>547730</v>
+        <v>565845</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="H17" s="7">
+        <v>924</v>
+      </c>
+      <c r="I17" s="7">
+        <v>549501</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="H17" s="7">
-        <v>901</v>
-      </c>
-      <c r="I17" s="7">
-        <v>534473</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1550</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1115345</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="M17" s="7">
-        <v>1507</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1082203</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,49 +6548,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7">
-        <v>99125</v>
+        <v>36001</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>117</v>
+      </c>
+      <c r="I19" s="7">
+        <v>175339</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="H19" s="7">
-        <v>378</v>
-      </c>
-      <c r="I19" s="7">
-        <v>315060</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>171</v>
+      </c>
+      <c r="N19" s="7">
+        <v>211341</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="M19" s="7">
-        <v>529</v>
-      </c>
-      <c r="N19" s="7">
-        <v>414185</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,25 +6599,25 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>877</v>
+        <v>974</v>
       </c>
       <c r="D20" s="7">
-        <v>598630</v>
+        <v>661753</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="H20" s="7">
-        <v>1330</v>
+        <v>1591</v>
       </c>
       <c r="I20" s="7">
-        <v>711577</v>
+        <v>851298</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>492</v>
@@ -6623,10 +6629,10 @@
         <v>494</v>
       </c>
       <c r="M20" s="7">
-        <v>2207</v>
+        <v>2565</v>
       </c>
       <c r="N20" s="7">
-        <v>1310207</v>
+        <v>1513051</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>495</v>
@@ -6647,7 +6653,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6697,49 +6703,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>476</v>
+        <v>291</v>
       </c>
       <c r="D22" s="7">
-        <v>455411</v>
+        <v>292715</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>498</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>237</v>
+        <v>499</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H22" s="7">
-        <v>968</v>
+        <v>626</v>
       </c>
       <c r="I22" s="7">
-        <v>782550</v>
+        <v>577818</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M22" s="7">
-        <v>1444</v>
+        <v>917</v>
       </c>
       <c r="N22" s="7">
-        <v>1237961</v>
+        <v>870533</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,49 +6754,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2900</v>
+        <v>3085</v>
       </c>
       <c r="D23" s="7">
-        <v>2929817</v>
+        <v>3092513</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>246</v>
+        <v>509</v>
       </c>
       <c r="H23" s="7">
-        <v>4399</v>
+        <v>4741</v>
       </c>
       <c r="I23" s="7">
-        <v>3053031</v>
+        <v>3257763</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M23" s="7">
-        <v>7299</v>
+        <v>7826</v>
       </c>
       <c r="N23" s="7">
-        <v>5982847</v>
+        <v>6350276</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,7 +6838,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P2C_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D909DDB-5CA5-4819-9E9E-CC470F330176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C8F4A82-D085-4022-8934-3924156FE4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1C6E735-9627-4F0B-9466-514374EE3E8C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{10C82B53-A8D6-4DBD-9FA2-2FF9EA5927F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="579">
   <si>
     <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2007 (Tasa respuesta: 63,28%)</t>
   </si>
@@ -68,10 +68,10 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
-  </si>
-  <si>
-    <t>SÍ</t>
+    <t>16-24</t>
+  </si>
+  <si>
+    <t>Sí</t>
   </si>
   <si>
     <t>20,01%</t>
@@ -101,7 +101,7 @@
     <t>30,86%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>79,99%</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>58,38%</t>
@@ -191,7 +191,7 @@
     <t>35,1%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>60,27%</t>
@@ -248,7 +248,7 @@
     <t>37,69%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>41,2%</t>
@@ -305,7 +305,7 @@
     <t>57,65%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>20,07%</t>
@@ -362,210 +362,267 @@
     <t>74,56%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2012 (Tasa respuesta: 66,65%)</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2012 (Tasa respuesta: 66,65%)</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
     <t>5,38%</t>
   </si>
   <si>
@@ -743,58 +800,106 @@
     <t>59,98%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
   </si>
   <si>
     <t>87,12%</t>
   </si>
   <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
   </si>
   <si>
     <t>49,37%</t>
@@ -1106,52 +1211,112 @@
     <t>74,31%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>44,2%</t>
@@ -1211,382 +1376,406 @@
     <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
   </si>
   <si>
     <t>91,98%</t>
   </si>
   <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
   </si>
   <si>
     <t>5,6%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
   </si>
   <si>
     <t>94,4%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
   </si>
 </sst>
 </file>
@@ -1998,8 +2187,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EE1793-5678-48A6-A2FA-65208CFE8183}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F974EB6-9FFB-474C-805F-535A99D3FF3B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2891,10 +3080,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D19" s="7">
-        <v>39370</v>
+        <v>17669</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2906,10 +3095,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="I19" s="7">
-        <v>76404</v>
+        <v>47913</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2921,10 +3110,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="N19" s="7">
-        <v>115774</v>
+        <v>65582</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2942,10 +3131,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>481</v>
+        <v>284</v>
       </c>
       <c r="D20" s="7">
-        <v>463096</v>
+        <v>274914</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2957,10 +3146,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>583</v>
+        <v>318</v>
       </c>
       <c r="I20" s="7">
-        <v>599539</v>
+        <v>294122</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2972,10 +3161,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>1064</v>
+        <v>602</v>
       </c>
       <c r="N20" s="7">
-        <v>1062635</v>
+        <v>569036</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2993,10 +3182,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3008,10 +3197,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>660</v>
+        <v>370</v>
       </c>
       <c r="I21" s="7">
-        <v>675943</v>
+        <v>342035</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3023,10 +3212,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1183</v>
+        <v>673</v>
       </c>
       <c r="N21" s="7">
-        <v>1178409</v>
+        <v>634618</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3040,49 +3229,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>679</v>
+        <v>23</v>
       </c>
       <c r="D22" s="7">
-        <v>706004</v>
+        <v>21701</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>1018</v>
+        <v>25</v>
       </c>
       <c r="I22" s="7">
-        <v>1058698</v>
+        <v>28491</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>1697</v>
+        <v>48</v>
       </c>
       <c r="N22" s="7">
-        <v>1764702</v>
+        <v>50192</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>133</v>
@@ -3097,10 +3286,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1206</v>
+        <v>197</v>
       </c>
       <c r="D23" s="7">
-        <v>1204222</v>
+        <v>188182</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -3112,10 +3301,10 @@
         <v>137</v>
       </c>
       <c r="H23" s="7">
-        <v>1217</v>
+        <v>265</v>
       </c>
       <c r="I23" s="7">
-        <v>1242664</v>
+        <v>305417</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>138</v>
@@ -3127,19 +3316,19 @@
         <v>140</v>
       </c>
       <c r="M23" s="7">
-        <v>2423</v>
+        <v>462</v>
       </c>
       <c r="N23" s="7">
-        <v>2446886</v>
+        <v>493599</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,63 +3337,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>679</v>
+      </c>
+      <c r="D25" s="7">
+        <v>706004</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1018</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1058698</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1697</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1764702</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1206</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1204222</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1217</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1242664</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2423</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2446886</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1885</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1910226</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2235</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2301362</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>4120</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>4211588</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3217,8 +3562,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B0CA84-71F3-4183-B9D5-A17B093C01A1}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFE33D8-73BC-487B-A7A3-654AC0F5345C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3234,7 +3579,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3341,13 +3686,13 @@
         <v>54037</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>116</v>
@@ -3356,13 +3701,13 @@
         <v>118550</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>168</v>
@@ -3371,13 +3716,13 @@
         <v>172586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3737,13 @@
         <v>122443</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>97</v>
@@ -3407,13 +3752,13 @@
         <v>98240</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>218</v>
@@ -3422,13 +3767,13 @@
         <v>220683</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3841,13 @@
         <v>218163</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>366</v>
@@ -3511,13 +3856,13 @@
         <v>391512</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>578</v>
@@ -3526,13 +3871,13 @@
         <v>609675</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3892,13 @@
         <v>102369</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -3562,13 +3907,13 @@
         <v>33284</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>129</v>
@@ -3577,13 +3922,13 @@
         <v>135653</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3996,13 @@
         <v>423869</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>545</v>
@@ -3666,28 +4011,28 @@
         <v>578861</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>953</v>
       </c>
       <c r="N10" s="7">
-        <v>1002731</v>
+        <v>1002732</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +4047,13 @@
         <v>145686</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -3717,13 +4062,13 @@
         <v>30904</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>168</v>
@@ -3732,13 +4077,13 @@
         <v>176589</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,7 +4125,7 @@
         <v>1121</v>
       </c>
       <c r="N12" s="7">
-        <v>1179320</v>
+        <v>1179321</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3806,13 +4151,13 @@
         <v>242627</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>233</v>
@@ -3821,13 +4166,13 @@
         <v>265845</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>452</v>
@@ -3836,13 +4181,13 @@
         <v>508472</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +4202,13 @@
         <v>132547</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>36</v>
@@ -3872,13 +4217,13 @@
         <v>41871</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>152</v>
@@ -3887,13 +4232,13 @@
         <v>174418</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +4306,13 @@
         <v>64495</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>89</v>
@@ -3976,13 +4321,13 @@
         <v>100491</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>149</v>
@@ -3991,13 +4336,13 @@
         <v>164986</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +4357,13 @@
         <v>77269</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>114</v>
@@ -4027,13 +4372,13 @@
         <v>121627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>185</v>
@@ -4042,13 +4387,13 @@
         <v>198896</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,49 +4455,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D19" s="7">
-        <v>52051</v>
+        <v>31599</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="H19" s="7">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="I19" s="7">
-        <v>94764</v>
+        <v>49215</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="M19" s="7">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="N19" s="7">
-        <v>146815</v>
+        <v>80814</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,49 +4506,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>452</v>
+        <v>248</v>
       </c>
       <c r="D20" s="7">
-        <v>501771</v>
+        <v>274388</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
-        <v>597</v>
+        <v>291</v>
       </c>
       <c r="I20" s="7">
-        <v>640881</v>
+        <v>300695</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
-        <v>1049</v>
+        <v>539</v>
       </c>
       <c r="N20" s="7">
-        <v>1142651</v>
+        <v>575083</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,10 +4557,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>498</v>
+        <v>278</v>
       </c>
       <c r="D21" s="7">
-        <v>553822</v>
+        <v>305987</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4227,10 +4572,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>687</v>
+        <v>340</v>
       </c>
       <c r="I21" s="7">
-        <v>735645</v>
+        <v>349910</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4242,10 +4587,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1185</v>
+        <v>618</v>
       </c>
       <c r="N21" s="7">
-        <v>1289466</v>
+        <v>655897</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4259,55 +4604,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>997</v>
+        <v>16</v>
       </c>
       <c r="D22" s="7">
-        <v>1055242</v>
+        <v>20452</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
-        <v>1439</v>
+        <v>41</v>
       </c>
       <c r="I22" s="7">
-        <v>1550023</v>
+        <v>45549</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
-        <v>2436</v>
+        <v>57</v>
       </c>
       <c r="N22" s="7">
-        <v>2605265</v>
+        <v>66001</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,49 +4661,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>997</v>
+        <v>204</v>
       </c>
       <c r="D23" s="7">
-        <v>1082084</v>
+        <v>227383</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
-        <v>904</v>
+        <v>306</v>
       </c>
       <c r="I23" s="7">
-        <v>966807</v>
+        <v>340186</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
-        <v>1901</v>
+        <v>510</v>
       </c>
       <c r="N23" s="7">
-        <v>2048891</v>
+        <v>567569</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,63 +4712,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>247835</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>347</v>
+      </c>
+      <c r="I24" s="7">
+        <v>385735</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>567</v>
+      </c>
+      <c r="N24" s="7">
+        <v>633570</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>997</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1055242</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1439</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1550023</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2436</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2605265</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>997</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1082084</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H26" s="7">
+        <v>904</v>
+      </c>
+      <c r="I26" s="7">
+        <v>966807</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1901</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2048891</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1994</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2137326</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2343</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2516830</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>4337</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>4654156</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4436,8 +4937,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49967EF3-C869-445B-A2BB-77A980C03B44}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D71A33-B7B3-4AF0-B042-7F9B43306B77}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4453,7 +4954,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4563,10 +5064,10 @@
         <v>67</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="H4" s="7">
         <v>102</v>
@@ -4575,13 +5076,13 @@
         <v>101867</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="M4" s="7">
         <v>147</v>
@@ -4590,13 +5091,13 @@
         <v>151526</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,10 +5115,10 @@
         <v>59</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -4626,13 +5127,13 @@
         <v>73082</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="M5" s="7">
         <v>173</v>
@@ -4641,13 +5142,13 @@
         <v>178152</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,10 +5219,10 @@
         <v>106</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="H7" s="7">
         <v>318</v>
@@ -4730,13 +5231,13 @@
         <v>311377</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="M7" s="7">
         <v>505</v>
@@ -4745,13 +5246,13 @@
         <v>505762</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,10 +5270,10 @@
         <v>96</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="H8" s="7">
         <v>49</v>
@@ -4781,13 +5282,13 @@
         <v>47016</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>111</v>
@@ -4796,13 +5297,13 @@
         <v>113328</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,10 +5374,10 @@
         <v>36</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="H10" s="7">
         <v>433</v>
@@ -4885,13 +5386,13 @@
         <v>430847</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="M10" s="7">
         <v>753</v>
@@ -4900,13 +5401,13 @@
         <v>765130</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,10 +5425,10 @@
         <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="H11" s="7">
         <v>112</v>
@@ -4936,13 +5437,13 @@
         <v>110362</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>239</v>
@@ -4951,13 +5452,13 @@
         <v>240454</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5526,13 @@
         <v>174789</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="H13" s="7">
         <v>181</v>
@@ -5040,13 +5541,13 @@
         <v>194646</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="M13" s="7">
         <v>339</v>
@@ -5055,13 +5556,13 @@
         <v>369435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5577,13 @@
         <v>165169</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>113</v>
@@ -5091,13 +5592,13 @@
         <v>121210</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>263</v>
@@ -5106,13 +5607,13 @@
         <v>286379</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,13 +5681,13 @@
         <v>42571</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -5195,13 +5696,13 @@
         <v>61113</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -5210,13 +5711,13 @@
         <v>103684</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5732,13 @@
         <v>87663</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
         <v>125</v>
@@ -5246,28 +5747,28 @@
         <v>143468</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>202</v>
       </c>
       <c r="N17" s="7">
-        <v>231130</v>
+        <v>231131</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,7 +5810,7 @@
         <v>293</v>
       </c>
       <c r="N18" s="7">
-        <v>334814</v>
+        <v>334815</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5329,49 +5830,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D19" s="7">
-        <v>42723</v>
+        <v>24339</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="I19" s="7">
-        <v>97124</v>
+        <v>45721</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>297</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="N19" s="7">
-        <v>139847</v>
+        <v>70060</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,49 +5881,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>535</v>
+        <v>267</v>
       </c>
       <c r="D20" s="7">
-        <v>504212</v>
+        <v>276289</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
-        <v>541</v>
+        <v>282</v>
       </c>
       <c r="I20" s="7">
-        <v>642909</v>
+        <v>300478</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>289</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
-        <v>1076</v>
+        <v>549</v>
       </c>
       <c r="N20" s="7">
-        <v>1147121</v>
+        <v>576767</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,10 +5932,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>580</v>
+        <v>291</v>
       </c>
       <c r="D21" s="7">
-        <v>546935</v>
+        <v>300628</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5446,10 +5947,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>620</v>
+        <v>324</v>
       </c>
       <c r="I21" s="7">
-        <v>740033</v>
+        <v>346199</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5461,10 +5962,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1200</v>
+        <v>615</v>
       </c>
       <c r="N21" s="7">
-        <v>1286968</v>
+        <v>646827</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5478,55 +5979,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>793</v>
+        <v>21</v>
       </c>
       <c r="D22" s="7">
-        <v>838411</v>
+        <v>18384</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
-        <v>1166</v>
+        <v>37</v>
       </c>
       <c r="I22" s="7">
-        <v>1196973</v>
+        <v>51402</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
-        <v>1959</v>
+        <v>58</v>
       </c>
       <c r="N22" s="7">
-        <v>2035384</v>
+        <v>69787</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,49 +6036,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1049</v>
+        <v>268</v>
       </c>
       <c r="D23" s="7">
-        <v>1058517</v>
+        <v>227923</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="H23" s="7">
-        <v>1015</v>
+        <v>259</v>
       </c>
       <c r="I23" s="7">
-        <v>1138047</v>
+        <v>342431</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="M23" s="7">
-        <v>2064</v>
+        <v>527</v>
       </c>
       <c r="N23" s="7">
-        <v>2196564</v>
+        <v>570353</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,63 +6087,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>289</v>
+      </c>
+      <c r="D24" s="7">
+        <v>246307</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>296</v>
+      </c>
+      <c r="I24" s="7">
+        <v>393833</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>585</v>
+      </c>
+      <c r="N24" s="7">
+        <v>640140</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>793</v>
+      </c>
+      <c r="D25" s="7">
+        <v>838411</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1166</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1196973</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1959</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2035384</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1049</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1058517</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1015</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1138047</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2064</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2196564</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1842</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1896928</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2181</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2335020</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>4023</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>4231948</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5655,8 +6312,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290FC7A3-B47E-4FC8-BFE0-BB13631CD02B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2098022B-568C-4EE6-82F5-0BA5F270EBDE}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5672,7 +6329,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5776,46 +6433,46 @@
         <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>13258</v>
+        <v>11595</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>25372</v>
+        <v>20740</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>38629</v>
+        <v>32335</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,46 +6484,46 @@
         <v>165</v>
       </c>
       <c r="D5" s="7">
-        <v>364421</v>
+        <v>388392</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="H5" s="7">
         <v>191</v>
       </c>
       <c r="I5" s="7">
-        <v>329585</v>
+        <v>292460</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="M5" s="7">
         <v>356</v>
       </c>
       <c r="N5" s="7">
-        <v>694007</v>
+        <v>680852</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,7 +6535,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5893,7 +6550,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5908,7 +6565,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5931,46 +6588,46 @@
         <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>35836</v>
+        <v>33674</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="H7" s="7">
         <v>92</v>
       </c>
       <c r="I7" s="7">
-        <v>97531</v>
+        <v>84638</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>412</v>
+        <v>112</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="M7" s="7">
         <v>124</v>
       </c>
       <c r="N7" s="7">
-        <v>133367</v>
+        <v>118312</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5982,46 +6639,46 @@
         <v>270</v>
       </c>
       <c r="D8" s="7">
-        <v>392560</v>
+        <v>389873</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="H8" s="7">
         <v>369</v>
       </c>
       <c r="I8" s="7">
-        <v>401684</v>
+        <v>427455</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>122</v>
       </c>
       <c r="M8" s="7">
         <v>639</v>
       </c>
       <c r="N8" s="7">
-        <v>794244</v>
+        <v>817328</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,7 +6690,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6048,7 +6705,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6063,7 +6720,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6086,46 +6743,46 @@
         <v>91</v>
       </c>
       <c r="D10" s="7">
-        <v>98506</v>
+        <v>90853</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="H10" s="7">
         <v>177</v>
       </c>
       <c r="I10" s="7">
-        <v>132382</v>
+        <v>117549</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="M10" s="7">
         <v>268</v>
       </c>
       <c r="N10" s="7">
-        <v>230888</v>
+        <v>208402</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6137,46 +6794,46 @@
         <v>455</v>
       </c>
       <c r="D11" s="7">
-        <v>458746</v>
+        <v>445485</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="H11" s="7">
         <v>671</v>
       </c>
       <c r="I11" s="7">
-        <v>478065</v>
+        <v>474453</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="M11" s="7">
         <v>1126</v>
       </c>
       <c r="N11" s="7">
-        <v>936811</v>
+        <v>919938</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6188,7 +6845,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6203,7 +6860,7 @@
         <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6218,7 +6875,7 @@
         <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6241,46 +6898,46 @@
         <v>70</v>
       </c>
       <c r="D13" s="7">
-        <v>74801</v>
+        <v>66636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="H13" s="7">
         <v>146</v>
       </c>
       <c r="I13" s="7">
-        <v>99632</v>
+        <v>88449</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="M13" s="7">
         <v>216</v>
       </c>
       <c r="N13" s="7">
-        <v>174433</v>
+        <v>155085</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,46 +6949,46 @@
         <v>595</v>
       </c>
       <c r="D14" s="7">
-        <v>649189</v>
+        <v>821150</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="H14" s="7">
         <v>995</v>
       </c>
       <c r="I14" s="7">
-        <v>647629</v>
+        <v>624432</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="M14" s="7">
         <v>1590</v>
       </c>
       <c r="N14" s="7">
-        <v>1296819</v>
+        <v>1445582</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,7 +7000,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6358,7 +7015,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6373,7 +7030,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6396,46 +7053,46 @@
         <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>34312</v>
+        <v>31387</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="H16" s="7">
         <v>78</v>
       </c>
       <c r="I16" s="7">
-        <v>47562</v>
+        <v>42978</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
       </c>
       <c r="N16" s="7">
-        <v>81875</v>
+        <v>74365</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,46 +7104,46 @@
         <v>626</v>
       </c>
       <c r="D17" s="7">
-        <v>565845</v>
+        <v>529847</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="H17" s="7">
         <v>924</v>
       </c>
       <c r="I17" s="7">
-        <v>549501</v>
+        <v>504927</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>474</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="M17" s="7">
         <v>1550</v>
       </c>
       <c r="N17" s="7">
-        <v>1115345</v>
+        <v>1034774</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,7 +7155,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6513,7 +7170,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6528,7 +7185,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6548,49 +7205,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D19" s="7">
-        <v>36001</v>
+        <v>14053</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>482</v>
+        <v>533</v>
       </c>
       <c r="H19" s="7">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="I19" s="7">
-        <v>175339</v>
+        <v>232082</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>483</v>
+        <v>534</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="M19" s="7">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="N19" s="7">
-        <v>211341</v>
+        <v>246135</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>488</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,49 +7256,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>974</v>
+        <v>547</v>
       </c>
       <c r="D20" s="7">
-        <v>661753</v>
+        <v>354112</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>489</v>
+        <v>539</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>491</v>
+        <v>541</v>
       </c>
       <c r="H20" s="7">
-        <v>1591</v>
+        <v>769</v>
       </c>
       <c r="I20" s="7">
-        <v>851298</v>
+        <v>376286</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>492</v>
+        <v>542</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>493</v>
+        <v>543</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>494</v>
+        <v>544</v>
       </c>
       <c r="M20" s="7">
-        <v>2565</v>
+        <v>1316</v>
       </c>
       <c r="N20" s="7">
-        <v>1513051</v>
+        <v>730398</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>495</v>
+        <v>545</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>496</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>497</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6650,10 +7307,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6665,10 +7322,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6680,10 +7337,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6697,55 +7354,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>291</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7">
-        <v>292715</v>
+        <v>19317</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>498</v>
+        <v>547</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>499</v>
+        <v>548</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="H22" s="7">
-        <v>626</v>
+        <v>59</v>
       </c>
       <c r="I22" s="7">
-        <v>577818</v>
+        <v>30738</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>502</v>
+        <v>551</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
       <c r="M22" s="7">
-        <v>917</v>
+        <v>90</v>
       </c>
       <c r="N22" s="7">
-        <v>870533</v>
+        <v>50055</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>504</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>505</v>
+        <v>553</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>506</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,49 +7411,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3085</v>
+        <v>427</v>
       </c>
       <c r="D23" s="7">
-        <v>3092513</v>
+        <v>263442</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>507</v>
+        <v>555</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>508</v>
+        <v>556</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>509</v>
+        <v>557</v>
       </c>
       <c r="H23" s="7">
-        <v>4741</v>
+        <v>822</v>
       </c>
       <c r="I23" s="7">
-        <v>3257763</v>
+        <v>395093</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>510</v>
+        <v>558</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>511</v>
+        <v>559</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>512</v>
+        <v>560</v>
       </c>
       <c r="M23" s="7">
-        <v>7826</v>
+        <v>1249</v>
       </c>
       <c r="N23" s="7">
-        <v>6350276</v>
+        <v>658535</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>513</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>514</v>
+        <v>561</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>515</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,63 +7462,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>291</v>
+      </c>
+      <c r="D25" s="7">
+        <v>267516</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="H25" s="7">
+        <v>626</v>
+      </c>
+      <c r="I25" s="7">
+        <v>617174</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="M25" s="7">
+        <v>917</v>
+      </c>
+      <c r="N25" s="7">
+        <v>884690</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3085</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3192301</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4741</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3095106</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7826</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6287407</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5367</v>
       </c>
-      <c r="I24" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8743</v>
       </c>
-      <c r="N24" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
